--- a/硬件电路板资源分配表V2.3(2018-09-26).xlsx
+++ b/硬件电路板资源分配表V2.3(2018-09-26).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="整机PCBA分配" sheetId="6" r:id="rId1"/>
@@ -3199,11 +3199,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3555,7 +3555,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4136,8 +4136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6034,8 +6034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6423,8 +6423,8 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="6">
@@ -6447,8 +6447,8 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="65"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="6">
@@ -6629,7 +6629,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="65"/>
+      <c r="O21" s="66"/>
       <c r="P21" s="59"/>
     </row>
     <row r="22" spans="1:16">
@@ -6653,7 +6653,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="65"/>
+      <c r="O22" s="66"/>
       <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:16">
@@ -6785,7 +6785,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="65"/>
+      <c r="O27" s="66"/>
       <c r="P27" s="59"/>
     </row>
     <row r="28" spans="1:16">
@@ -7108,7 +7108,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="10"/>
-      <c r="P40" s="66"/>
+      <c r="P40" s="65"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="6">
@@ -7132,7 +7132,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="10"/>
-      <c r="P41" s="66"/>
+      <c r="P41" s="65"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="6">
@@ -7156,7 +7156,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="66"/>
+      <c r="P42" s="65"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="6">
@@ -7180,7 +7180,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="66"/>
+      <c r="P43" s="65"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="6">
@@ -7432,12 +7432,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="P39:P44"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="P31:P34"/>
     <mergeCell ref="A51:P54"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="P16:P17"/>
@@ -7451,6 +7445,12 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P35:P38"/>
     <mergeCell ref="P20:P23"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="P39:P44"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7463,7 +7463,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7843,7 +7843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -9719,13 +9719,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A71:O74"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="O65:O68"/>
     <mergeCell ref="N55:N57"/>
     <mergeCell ref="O55:O57"/>
     <mergeCell ref="A1:O1"/>
@@ -9741,6 +9734,13 @@
     <mergeCell ref="N28:N36"/>
     <mergeCell ref="N37:N39"/>
     <mergeCell ref="N40:N47"/>
+    <mergeCell ref="A71:O74"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="O65:O68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9752,7 +9752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -10168,8 +10168,8 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="65"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="6">
@@ -10192,8 +10192,8 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="65"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="6">
@@ -10374,7 +10374,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="65"/>
+      <c r="O22" s="66"/>
       <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:16">
@@ -10398,7 +10398,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="65"/>
+      <c r="O23" s="66"/>
       <c r="P23" s="59"/>
     </row>
     <row r="24" spans="1:16">
@@ -10530,7 +10530,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="65"/>
+      <c r="O28" s="66"/>
       <c r="P28" s="59"/>
     </row>
     <row r="29" spans="1:16">
@@ -10801,7 +10801,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="37"/>
-      <c r="P39" s="66"/>
+      <c r="P39" s="65"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="6">
@@ -10825,7 +10825,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="37"/>
-      <c r="P40" s="66"/>
+      <c r="P40" s="65"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="6">
@@ -10849,7 +10849,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="37"/>
-      <c r="P41" s="66"/>
+      <c r="P41" s="65"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="6">
@@ -10873,7 +10873,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="37"/>
-      <c r="P42" s="66"/>
+      <c r="P42" s="65"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="6">
@@ -11127,23 +11127,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A50:P53"/>
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="P38:P43"/>
-    <mergeCell ref="P44:P46"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
     <mergeCell ref="O21:O24"/>
     <mergeCell ref="P21:P24"/>
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="P25:P26"/>
     <mergeCell ref="O27:O29"/>
     <mergeCell ref="P27:P29"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="A50:P53"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="P38:P43"/>
+    <mergeCell ref="P44:P46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11155,8 +11155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11758,7 +11758,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="66"/>
+      <c r="O22" s="65"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="6">
@@ -11781,7 +11781,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="66"/>
+      <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="6">
@@ -11804,7 +11804,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="66"/>
+      <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="6">

--- a/硬件电路板资源分配表V2.3(2018-09-26).xlsx
+++ b/硬件电路板资源分配表V2.3(2018-09-26).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="整机PCBA分配" sheetId="6" r:id="rId1"/>
@@ -3199,11 +3199,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4136,8 +4136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6423,8 +6423,8 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="66"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="6">
@@ -6447,8 +6447,8 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="6">
@@ -6629,7 +6629,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="66"/>
+      <c r="O21" s="65"/>
       <c r="P21" s="59"/>
     </row>
     <row r="22" spans="1:16">
@@ -6653,7 +6653,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="66"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:16">
@@ -6785,7 +6785,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="66"/>
+      <c r="O27" s="65"/>
       <c r="P27" s="59"/>
     </row>
     <row r="28" spans="1:16">
@@ -7108,7 +7108,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="10"/>
-      <c r="P40" s="65"/>
+      <c r="P40" s="66"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="6">
@@ -7132,7 +7132,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="10"/>
-      <c r="P41" s="65"/>
+      <c r="P41" s="66"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="6">
@@ -7156,7 +7156,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="65"/>
+      <c r="P42" s="66"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="6">
@@ -7180,7 +7180,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="65"/>
+      <c r="P43" s="66"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="6">
@@ -7432,6 +7432,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="P31:P34"/>
     <mergeCell ref="A51:P54"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="P16:P17"/>
@@ -7448,9 +7451,6 @@
     <mergeCell ref="P12:P15"/>
     <mergeCell ref="P39:P44"/>
     <mergeCell ref="P24:P25"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9719,6 +9719,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A71:O74"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="O65:O68"/>
     <mergeCell ref="N55:N57"/>
     <mergeCell ref="O55:O57"/>
     <mergeCell ref="A1:O1"/>
@@ -9734,13 +9741,6 @@
     <mergeCell ref="N28:N36"/>
     <mergeCell ref="N37:N39"/>
     <mergeCell ref="N40:N47"/>
-    <mergeCell ref="A71:O74"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="O65:O68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10168,8 +10168,8 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="6">
@@ -10192,8 +10192,8 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="6">
@@ -10374,7 +10374,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="66"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:16">
@@ -10398,7 +10398,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="66"/>
+      <c r="O23" s="65"/>
       <c r="P23" s="59"/>
     </row>
     <row r="24" spans="1:16">
@@ -10530,7 +10530,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="66"/>
+      <c r="O28" s="65"/>
       <c r="P28" s="59"/>
     </row>
     <row r="29" spans="1:16">
@@ -10801,7 +10801,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="37"/>
-      <c r="P39" s="65"/>
+      <c r="P39" s="66"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="6">
@@ -10825,7 +10825,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="37"/>
-      <c r="P40" s="65"/>
+      <c r="P40" s="66"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="6">
@@ -10849,7 +10849,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="37"/>
-      <c r="P41" s="65"/>
+      <c r="P41" s="66"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="6">
@@ -10873,7 +10873,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="37"/>
-      <c r="P42" s="65"/>
+      <c r="P42" s="66"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="6">
@@ -11127,23 +11127,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A50:P53"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="P38:P43"/>
+    <mergeCell ref="P44:P46"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="P27:P29"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="O19:O20"/>
     <mergeCell ref="P19:P20"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="A50:P53"/>
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="P38:P43"/>
-    <mergeCell ref="P44:P46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11155,7 +11155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
@@ -11758,7 +11758,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="65"/>
+      <c r="O22" s="66"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="6">
@@ -11781,7 +11781,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="65"/>
+      <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="6">
@@ -11804,7 +11804,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="65"/>
+      <c r="O24" s="66"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="6">
